--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1037.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1037.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.235881805432992</v>
+        <v>0.934691846370697</v>
       </c>
       <c r="B1">
-        <v>3.41584063971729</v>
+        <v>0.9854012131690979</v>
       </c>
       <c r="C1">
-        <v>2.736386644852328</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.446236808674159</v>
+        <v>2.17516040802002</v>
       </c>
       <c r="E1">
-        <v>1.814132757191796</v>
+        <v>1.075182318687439</v>
       </c>
     </row>
   </sheetData>
